--- a/results/mp/tinybert/corona/confidence/210/topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,127 +40,121 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -518,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>26</v>
@@ -587,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,37 +681,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7467532467532467</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7333333333333333</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4583333333333333</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,295 +849,175 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.796875</v>
+      </c>
+      <c r="L11">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>102</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L12">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>35</v>
-      </c>
-      <c r="M8">
-        <v>35</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3175965665236051</v>
-      </c>
-      <c r="C10">
-        <v>74</v>
-      </c>
-      <c r="D10">
-        <v>74</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>159</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
-      <c r="M10">
-        <v>47</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K13">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L13">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L11">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>45</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>69</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L12">
-        <v>42</v>
-      </c>
-      <c r="M12">
-        <v>42</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.0962962962962963</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>122</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L13">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>45</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.75</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1181,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1207,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6896551724137931</v>
+        <v>0.70625</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1233,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1259,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6575342465753424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1285,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1311,47 +1185,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L21">
+        <v>56</v>
+      </c>
+      <c r="M21">
+        <v>56</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>38</v>
-      </c>
-      <c r="K21">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
-      </c>
-      <c r="M21">
-        <v>21</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1363,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1389,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5789473684210527</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1415,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.539906103286385</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L25">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="M25">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1441,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5333333333333333</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1467,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5069444444444444</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L27">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1493,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4642857142857143</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1519,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4341085271317829</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1545,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>73</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4285714285714285</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1571,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3695652173913043</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1597,7 +1471,85 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.005084354055927894</v>
+      </c>
+      <c r="L33">
+        <v>22</v>
+      </c>
+      <c r="M33">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>0.96</v>
+      </c>
+      <c r="O33">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.005005005005005005</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <v>0.96</v>
+      </c>
+      <c r="O34">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>4970</v>
       </c>
     </row>
   </sheetData>
